--- a/imageCreationExcel/back/109/109_1.xlsx
+++ b/imageCreationExcel/back/109/109_1.xlsx
@@ -486,16 +486,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13.91880836226425</v>
+        <v>1.002456517481565</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.7015180485588214</v>
+        <v>0.7468436381372975</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.07026826035588046</v>
+        <v>0.804077434199168</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_S_brightness13.919_gamma0.702_sharpness0.07.jpg</t>
+          <t>1_1_contrast1.002_gamma0.747_sharpness0.804.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.067417781716013</v>
+        <v>18.77861571573612</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9981415048519727</v>
+        <v>1.167540136998261</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.3350857114665978</v>
+        <v>0.6529466543587934</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_0_contrast1.067_gamma0.998_sharpness0.335.jpg</t>
+          <t>2_I_brightness18.779_contrast1.168_gamma0.653.jpg</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6583500624026321</v>
+        <v>0.8141807806940344</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.447720809939962</v>
+        <v>0.1792329577898335</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -595,14 +595,14 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9.616794360484299</v>
+        <v>18.09396947043922</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_I_gamma0.658_sharpness0.448_equalization9.617.jpg</t>
+          <t>3_2_gamma0.814_sharpness0.179_equalization18.094.jpg</t>
         </is>
       </c>
     </row>
@@ -617,19 +617,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.027870117496133</v>
+        <v>1.090859532528432</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.6023839264035794</v>
+        <v>0.6228036860915966</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>22.90983094610421</v>
+        <v>23.47418507534855</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_I_gamma1.028_sharpness0.602_equalization22.91.jpg</t>
+          <t>4_I_contrast1.091_gamma0.623_equalization23.474.jpg</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,15 +663,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.714085322714798</v>
+        <v>16.05103089623911</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.8584162735003581</v>
+        <v>1.110688097534403</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.3391994492310434</v>
+        <v>0.8811868534607283</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_2_brightness2.714_gamma0.858_sharpness0.339.jpg</t>
+          <t>5_1_brightness16.051_contrast1.111_sharpness0.881.jpg</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>24.29287311927361</v>
+        <v>5.242017684173947</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.9367108126780117</v>
+        <v>0.6017702351240585</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -721,14 +721,14 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.1473037614357914</v>
+        <v>0.5397565050866604</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_P_brightness24.293_gamma0.937_sharpness0.147.jpg</t>
+          <t>6_1_brightness5.242_gamma0.602_sharpness0.54.jpg</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9557012579332652</v>
+        <v>1.133368379568073</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.7855632910220418</v>
+        <v>0.7111644912129218</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.9790569800733204</v>
+        <v>24.27870143827779</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_E_contrast0.956_gamma0.786_sharpness0.979.jpg</t>
+          <t>7_8_contrast1.133_gamma0.711_equalization24.279.jpg</t>
         </is>
       </c>
     </row>
@@ -780,24 +780,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.6078658390413735</v>
+        <v>1.030301695551364</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.356388256139268</v>
+        <v>1.050539334021314</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8.07810685865811</v>
+        <v>9.852215291580471</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_2_gamma0.608_sharpness0.356_equalization8.078.jpg</t>
+          <t>8_9_contrast1.03_gamma1.051_equalization9.852.jpg</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,15 +831,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.054738984233776</v>
+        <v>0.8916174784564828</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.8778691774952638</v>
+        <v>0.9538493965979387</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>30.03927330497716</v>
+        <v>21.82162805730866</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_B_contrast1.055_gamma0.878_equalization30.039.jpg</t>
+          <t>9_0_contrast0.892_sharpness0.954_equalization21.822.jpg</t>
         </is>
       </c>
     </row>
@@ -864,24 +864,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8396621440618445</v>
+        <v>15.65299956738652</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8679152203465513</v>
+        <v>1.115661457177711</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,14 +889,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.3021521564161725</v>
+        <v>0.9721127575572128</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_E_contrast0.84_gamma0.868_sharpness0.302.jpg</t>
+          <t>10_9_brightness15.653_contrast1.116_sharpness0.972.jpg</t>
         </is>
       </c>
     </row>
@@ -906,16 +906,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.5279650546787948</v>
+        <v>0.9585222599583273</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.162900667479795</v>
+        <v>0.2714494101710022</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>18.03866835138221</v>
+        <v>26.30960822566563</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_9_gamma0.528_sharpness0.163_equalization18.039.jpg</t>
+          <t>11_8_contrast0.959_sharpness0.271_equalization26.31.jpg</t>
         </is>
       </c>
     </row>
@@ -948,39 +948,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6.427217104776924</v>
+        <v>0.5117709105462179</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9968192572852401</v>
+        <v>0.5412246474215826</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.04738555625873263</v>
+        <v>21.70912133595951</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_S_brightness6.427_contrast0.997_sharpness0.047.jpg</t>
+          <t>12_2_gamma0.512_sharpness0.541_equalization21.709.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.8146962093846197</v>
+        <v>6.207056917000382</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.003219850921358</v>
+        <v>1.153528943528574</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.5996063286236124</v>
+        <v>0.9645670874155192</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_P_contrast0.815_gamma1.003_sharpness0.6.jpg</t>
+          <t>13_8_brightness6.207_contrast1.154_gamma0.965.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1041,15 +1041,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.9047235078360685</v>
+        <v>0.8496176496479086</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.6505715156053807</v>
+        <v>0.7128229616111496</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>16.79189660608223</v>
+        <v>14.56476863601412</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_E_contrast0.905_sharpness0.651_equalization16.792.jpg</t>
+          <t>14_T_contrast0.85_gamma0.713_equalization14.565.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,16 +1074,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.180855749635615</v>
+        <v>1.172316108970149</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.866179955960116</v>
+        <v>0.7983898250227639</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1099,14 +1099,14 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.1796327183156619</v>
+        <v>0.5603526412521017</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_I_brightness1.181_gamma0.866_sharpness0.18.jpg</t>
+          <t>15_S_contrast1.172_gamma0.798_sharpness0.56.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,16 +1116,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.8237637743286381</v>
+        <v>8.193822401927928</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1133,22 +1133,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.7286817029373921</v>
+        <v>0.6593833477040606</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>17.5699372354928</v>
+        <v>0.4096322604722571</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_I_contrast0.824_gamma0.729_equalization17.57.jpg</t>
+          <t>16_3_brightness8.194_gamma0.659_sharpness0.41.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.113731503694486</v>
+        <v>0.9205715835678525</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.2146739965450281</v>
+        <v>0.521601843179</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6.666636681674818</v>
+        <v>17.36280835813783</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_B_contrast1.114_sharpness0.215_equalization6.667.jpg</t>
+          <t>17_T_contrast0.921_sharpness0.522_equalization17.363.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>14.64733814001809</v>
+        <v>0.7251138916033036</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.844248734442285</v>
+        <v>0.7637815567802251</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.6986077131316085</v>
+        <v>20.0907481095782</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_C_brightness14.647_gamma0.844_sharpness0.699.jpg</t>
+          <t>18_0_gamma0.725_sharpness0.764_equalization20.091.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1251,15 +1251,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6.457916750416736</v>
+        <v>19.19779299486312</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.154261729528426</v>
+        <v>0.7291336049956749</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1267,14 +1267,14 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.228404616861879</v>
+        <v>0.9268852801797771</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_I_brightness6.458_contrast1.154_sharpness0.228.jpg</t>
+          <t>19_2_brightness19.198_gamma0.729_sharpness0.927.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>18.45029164945866</v>
+        <v>19.98544889085316</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.137454303398628</v>
+        <v>1.174511419655517</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1309,14 +1309,14 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.1789838836016563</v>
+        <v>0.3182834141165167</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_T_brightness18.45_contrast1.137_sharpness0.179.jpg</t>
+          <t>20_7_brightness19.985_contrast1.175_sharpness0.318.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,39 +1326,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.5439874105222634</v>
+        <v>11.9030879099466</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9845170924810756</v>
+        <v>0.5612237037659835</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>28.08321983922151</v>
+        <v>0.8018764371266278</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_7_gamma0.544_sharpness0.985_equalization28.083.jpg</t>
+          <t>21_8_brightness11.903_gamma0.561_sharpness0.802.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,24 +1368,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>11.2338205595848</v>
+        <v>0.8578039081565227</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.12950245830709</v>
+        <v>1.093346577223532</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1393,14 +1393,14 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.7837518972162899</v>
+        <v>0.4938650101026973</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_B_brightness11.234_contrast1.13_sharpness0.784.jpg</t>
+          <t>22_8_contrast0.858_gamma1.093_sharpness0.494.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,39 +1410,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.040179701048894</v>
+        <v>21.28227564688532</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.3304906136918572</v>
+        <v>0.6136323790045776</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>4.740172496892638</v>
+        <v>0.9193462468672455</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_T_contrast1.04_sharpness0.33_equalization4.74.jpg</t>
+          <t>23_0_brightness21.282_gamma0.614_sharpness0.919.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,16 +1452,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.96094304298405</v>
+        <v>17.7616337840576</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.5289195958434398</v>
+        <v>0.5811935995928966</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1477,14 +1477,14 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.3940892077687265</v>
+        <v>0.2914767709449727</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_9_contrast0.961_gamma0.529_sharpness0.394.jpg</t>
+          <t>24_7_brightness17.762_gamma0.581_sharpness0.291.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,30 +1503,30 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.191221804744616</v>
+        <v>0.8316819750977275</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.5040790652903419</v>
+        <v>0.9647319351232686</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.8809036440232614</v>
+        <v>13.65575038342997</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_C_contrast1.191_gamma0.504_sharpness0.881.jpg</t>
+          <t>25_E_contrast0.832_sharpness0.965_equalization13.656.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,24 +1536,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.124146119960398</v>
+        <v>10.91347321995436</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.689521066757277</v>
+        <v>1.154684773972418</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.1440033560559608</v>
+        <v>0.7070222161515418</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_B_contrast1.124_gamma0.69_sharpness0.144.jpg</t>
+          <t>26_C_brightness10.913_contrast1.155_sharpness0.707.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.8251654510371599</v>
+        <v>0.646037394464079</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.8648808044744216</v>
+        <v>0.6592959349340688</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.8660040265847025</v>
+        <v>14.87572013674106</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_3_contrast0.825_gamma0.865_sharpness0.866.jpg</t>
+          <t>27_T_gamma0.646_sharpness0.659_equalization14.876.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,16 +1620,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.667715817179076</v>
+        <v>1.025602741646889</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.7027363644749127</v>
+        <v>0.5810104497683273</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1645,14 +1645,14 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.8523452327171969</v>
+        <v>0.6134708296326532</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_P_brightness1.668_gamma0.703_sharpness0.852.jpg</t>
+          <t>28_8_contrast1.026_gamma0.581_sharpness0.613.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,16 +1662,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>17.090176252149</v>
+        <v>1.148964863048556</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.077884455130017</v>
+        <v>0.5007659195133193</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.9725815179187856</v>
+        <v>0.7531939314401765</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_8_brightness17.09_gamma1.078_sharpness0.973.jpg</t>
+          <t>29_1_contrast1.149_gamma0.501_sharpness0.753.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2.357732045889453</v>
+        <v>23.46246626831357</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1721,22 +1721,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.181492697632333</v>
+        <v>1.153722256178503</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.9619713195732529</v>
+        <v>0.6271049363873406</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_0_brightness2.358_contrast1.181_gamma0.962.jpg</t>
+          <t>30_8_brightness23.462_contrast1.154_sharpness0.627.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1755,15 +1755,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.8603974020547605</v>
+        <v>0.8178830989607579</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9882369522695099</v>
+        <v>0.6333164794312359</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>14.0792815271205</v>
+        <v>25.46462568767842</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_9_contrast0.86_sharpness0.988_equalization14.079.jpg</t>
+          <t>31_I_contrast0.818_gamma0.633_equalization25.465.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.075640751619113</v>
+        <v>0.8528723177306622</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.7148855931915398</v>
+        <v>0.7420288236189645</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.6529332147824642</v>
+        <v>0.7163274107858515</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_3_contrast1.076_gamma0.715_sharpness0.653.jpg</t>
+          <t>32_B_contrast0.853_gamma0.742_sharpness0.716.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,30 +1839,30 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>13.46612426406156</v>
+        <v>14.12502904528221</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.5726991296525159</v>
+        <v>1.067681030147496</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.9198694808160592</v>
+        <v>0.7134501931783841</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_I_brightness13.466_gamma0.573_sharpness0.92.jpg</t>
+          <t>33_T_brightness14.125_contrast1.068_gamma0.713.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,16 +1872,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.9020849142760774</v>
+        <v>16.75003722357627</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1889,22 +1889,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.5852396285528222</v>
+        <v>0.6923754042492409</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>18.3411696209684</v>
+        <v>0.03883402643002945</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_E_contrast0.902_gamma0.585_equalization18.341.jpg</t>
+          <t>34_2_brightness16.75_gamma0.692_sharpness0.039.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3.806158540417459</v>
+        <v>0.9465247264136409</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.114520487645178</v>
+        <v>0.9186462262447792</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1.027688219485318</v>
+        <v>6.412636093386446</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_E_brightness3.806_contrast1.115_gamma1.028.jpg</t>
+          <t>35_9_contrast0.947_sharpness0.919_equalization6.413.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1965,30 +1965,30 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>7.316729382917614</v>
+        <v>6.510069479557598</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.032901588844134</v>
+        <v>0.7010659953633583</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.823413267981405</v>
+        <v>0.8866298965716627</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_I_brightness7.317_contrast1.033_gamma0.823.jpg</t>
+          <t>36_E_brightness6.51_gamma0.701_sharpness0.887.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.8829514049218102</v>
+        <v>0.9703202899436697</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.004853854432682</v>
+        <v>0.9492959894657059</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2023,14 +2023,14 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>19.99946783448102</v>
+        <v>23.61497182561313</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_3_contrast0.883_gamma1.005_equalization19.999.jpg</t>
+          <t>37_B_contrast0.97_gamma0.949_equalization23.615.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4.023344397602066</v>
+        <v>1.024691585594861</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2057,22 +2057,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.8895424167609086</v>
+        <v>1.169996626101577</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1.050755830896455</v>
+        <v>0.8006052644448556</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_3_brightness4.023_contrast0.89_gamma1.051.jpg</t>
+          <t>38_0_brightness1.025_contrast1.17_sharpness0.801.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2091,30 +2091,30 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2.263837369627418</v>
+        <v>29.81924517795765</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.5622984634209357</v>
+        <v>1.043560215667414</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.3162271747652413</v>
+        <v>1.037495082984876</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_2_brightness2.264_gamma0.562_sharpness0.316.jpg</t>
+          <t>39_C_brightness29.819_contrast1.044_gamma1.037.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,39 +2124,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.12002428163375</v>
+        <v>13.50219173423941</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.839546971229074</v>
+        <v>1.12660004388201</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>6.605171964081363</v>
+        <v>1.057139532412696</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_I_contrast1.12_sharpness0.84_equalization6.605.jpg</t>
+          <t>40_7_brightness13.502_contrast1.127_gamma1.057.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>27.48273078831631</v>
+        <v>16.49523172671555</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2183,22 +2183,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.9183176538865542</v>
+        <v>1.013016327449205</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1.019723431874967</v>
+        <v>0.3136517092537225</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_C_brightness27.483_contrast0.918_gamma1.02.jpg</t>
+          <t>41_2_brightness16.495_contrast1.013_sharpness0.314.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9421078234225905</v>
+        <v>24.02152518688892</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.2442111879418286</v>
+        <v>0.8528214661964943</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>28.26517738081488</v>
+        <v>0.7838503035929147</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_0_contrast0.942_sharpness0.244_equalization28.265.jpg</t>
+          <t>42_9_brightness24.022_contrast0.853_sharpness0.784.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,16 +2250,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>17.93173326750079</v>
+        <v>1.176002510912743</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.7591460790887244</v>
+        <v>0.8549727818411522</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.1354459130981514</v>
+        <v>0.3017395245899825</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_0_brightness17.932_gamma0.759_sharpness0.135.jpg</t>
+          <t>43_C_contrast1.176_gamma0.855_sharpness0.302.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.109749555505467</v>
+        <v>1.02716504067003</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2309,22 +2309,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.8986856724067991</v>
+        <v>0.7003627909733123</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.9942480851745784</v>
+        <v>5.42007076744861</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_7_contrast1.11_gamma0.899_sharpness0.994.jpg</t>
+          <t>44_E_contrast1.027_gamma0.7_equalization5.42.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>15.12302003883523</v>
+        <v>0.8672297181503698</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.5052093917863998</v>
+        <v>0.6122918325527178</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.04348740846876064</v>
+        <v>29.08609070686184</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_7_brightness15.123_gamma0.505_sharpness0.043.jpg</t>
+          <t>45_3_gamma0.867_sharpness0.612_equalization29.086.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>25.52859897356037</v>
+        <v>0.6438423741430005</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.170538504226555</v>
+        <v>0.5855161506528692</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.6401218520036747</v>
+        <v>18.83499290231314</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_C_brightness25.529_contrast1.171_gamma0.64.jpg</t>
+          <t>46_B_gamma0.644_sharpness0.586_equalization18.835.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2427,30 +2427,30 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9628921209557666</v>
+        <v>0.9864484435046479</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.6704784581095456</v>
+        <v>0.7833881294781013</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>10.08179726311634</v>
+        <v>0.7013079128158412</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_9_contrast0.963_sharpness0.67_equalization10.082.jpg</t>
+          <t>47_3_contrast0.986_gamma0.783_sharpness0.701.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9259649693926808</v>
+        <v>0.9611299352263949</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.6178985752950655</v>
+        <v>1.027969287355045</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2485,14 +2485,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>22.77925078436311</v>
+        <v>19.688724866781</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_B_contrast0.926_gamma0.618_equalization22.779.jpg</t>
+          <t>48_0_contrast0.961_gamma1.028_equalization19.689.jpg</t>
         </is>
       </c>
     </row>
